--- a/thesis/ndcg.xlsx
+++ b/thesis/ndcg.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="similarity1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="HTML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>jQuery</t>
   </si>
@@ -880,7 +881,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1496,4 +1497,296 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.2087</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>LOG(C2,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F8" si="0">D2/E2</f>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f>LOG(G2,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>D2/H2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="1">LOG(C3,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.2618595071429148</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="2">LOG(G3,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>D3/H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3569</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I4:I8" si="3">D5/H5</f>
+        <v>0.43067655807339306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.38685280723454163</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.38685280723454163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.43067655807339306</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.35620718710802218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.03E-2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1.8927892607143721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>11.648010433774916</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I2:I9)</f>
+        <v>12.06652581313033</v>
+      </c>
+      <c r="J10">
+        <f>F10/I10</f>
+        <v>0.96531600016137187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>